--- a/Output Data/subsistence_summary_by_community.xlsx
+++ b/Output Data/subsistence_summary_by_community.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,21 @@
           <t>MarineInverts_kg</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LATITUDE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LONGITUDE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total_kg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -394,6 +409,15 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>51.8401822</v>
+      </c>
+      <c r="F2">
+        <v>-176.5660013</v>
+      </c>
+      <c r="G2">
+        <v>808.8938829500054</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -410,6 +434,15 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>58.00778</v>
+      </c>
+      <c r="F3">
+        <v>-152.76806</v>
+      </c>
+      <c r="G3">
+        <v>275.625</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -426,6 +459,15 @@
       <c r="D4">
         <v>1171.201814058957</v>
       </c>
+      <c r="E4">
+        <v>56.9495732</v>
+      </c>
+      <c r="F4">
+        <v>-154.214275</v>
+      </c>
+      <c r="G4">
+        <v>1791.824855699856</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -442,6 +484,15 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>60.9161621</v>
+      </c>
+      <c r="F5">
+        <v>-161.4046954</v>
+      </c>
+      <c r="G5">
+        <v>89054.22407208498</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -458,6 +509,15 @@
       <c r="D6">
         <v>87.07482993197279</v>
       </c>
+      <c r="E6">
+        <v>60.9099817</v>
+      </c>
+      <c r="F6">
+        <v>-161.2163759</v>
+      </c>
+      <c r="G6">
+        <v>61207.10677437642</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -474,6 +534,15 @@
       <c r="D7">
         <v>1299.319727891156</v>
       </c>
+      <c r="E7">
+        <v>54.1381957</v>
+      </c>
+      <c r="F7">
+        <v>-165.7908096</v>
+      </c>
+      <c r="G7">
+        <v>3326.778840702948</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -490,6 +559,15 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>62.7111604</v>
+      </c>
+      <c r="F8">
+        <v>-164.6447123</v>
+      </c>
+      <c r="G8">
+        <v>31053.19318181818</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -506,6 +584,15 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>66.56392940000001</v>
+      </c>
+      <c r="F9">
+        <v>-152.8380024</v>
+      </c>
+      <c r="G9">
+        <v>454.8244047619048</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -522,6 +609,15 @@
       <c r="D10">
         <v>48.07256235827664</v>
       </c>
+      <c r="E10">
+        <v>59.2889609</v>
+      </c>
+      <c r="F10">
+        <v>-158.6643428</v>
+      </c>
+      <c r="G10">
+        <v>8050.245181405896</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -538,6 +634,15 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>61.7255</v>
+      </c>
+      <c r="F11">
+        <v>-150.8695</v>
+      </c>
+      <c r="G11">
+        <v>1149.375</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -554,6 +659,15 @@
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="E12">
+        <v>66.5645439</v>
+      </c>
+      <c r="F12">
+        <v>-152.6498075</v>
+      </c>
+      <c r="G12">
+        <v>14813.62394957983</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -570,6 +684,15 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>67.100657</v>
+      </c>
+      <c r="F13">
+        <v>-157.8478028</v>
+      </c>
+      <c r="G13">
+        <v>9322.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -586,6 +709,15 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>68.1517915</v>
+      </c>
+      <c r="F14">
+        <v>-151.7000705</v>
+      </c>
+      <c r="G14">
+        <v>1168.512849584278</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -602,6 +734,15 @@
       <c r="D15">
         <v>1152.380952380952</v>
       </c>
+      <c r="E15">
+        <v>59.7509786</v>
+      </c>
+      <c r="F15">
+        <v>-151.7021526</v>
+      </c>
+      <c r="G15">
+        <v>1570.212226996061</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -618,6 +759,15 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>61.177549</v>
+      </c>
+      <c r="F16">
+        <v>-149.2743541</v>
+      </c>
+      <c r="G16">
+        <v>126376.6374974232</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -634,6 +784,15 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17">
+        <v>64.3096341</v>
+      </c>
+      <c r="F17">
+        <v>-149.1629188</v>
+      </c>
+      <c r="G17">
+        <v>503.8421052631579</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -650,6 +809,15 @@
       <c r="D18">
         <v>8016.780045351474</v>
       </c>
+      <c r="E18">
+        <v>57.4407168</v>
+      </c>
+      <c r="F18">
+        <v>-134.4777118</v>
+      </c>
+      <c r="G18">
+        <v>19395.10090702948</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -666,6 +834,15 @@
       <c r="D19">
         <v>0</v>
       </c>
+      <c r="E19">
+        <v>61.5780349</v>
+      </c>
+      <c r="F19">
+        <v>-159.5287538</v>
+      </c>
+      <c r="G19">
+        <v>47860.85526315789</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -682,6 +859,15 @@
       <c r="D20">
         <v>0</v>
       </c>
+      <c r="E20">
+        <v>55.135</v>
+      </c>
+      <c r="F20">
+        <v>-131.4558</v>
+      </c>
+      <c r="G20">
+        <v>36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -698,6 +884,15 @@
       <c r="D21">
         <v>0</v>
       </c>
+      <c r="E21">
+        <v>62.6310161</v>
+      </c>
+      <c r="F21">
+        <v>-160.2136855</v>
+      </c>
+      <c r="G21">
+        <v>38501.99086671706</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -714,6 +909,15 @@
       <c r="D22">
         <v>0</v>
       </c>
+      <c r="E22">
+        <v>68.1654197</v>
+      </c>
+      <c r="F22">
+        <v>-145.4013293</v>
+      </c>
+      <c r="G22">
+        <v>5781.254724111866</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -730,6 +934,15 @@
       <c r="D23">
         <v>200.907029478458</v>
       </c>
+      <c r="E23">
+        <v>52.2130911</v>
+      </c>
+      <c r="F23">
+        <v>-174.215643</v>
+      </c>
+      <c r="G23">
+        <v>431.5976676384839</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -746,6 +959,15 @@
       <c r="D24">
         <v>0</v>
       </c>
+      <c r="E24">
+        <v>60.8591583</v>
+      </c>
+      <c r="F24">
+        <v>-162.2819874</v>
+      </c>
+      <c r="G24">
+        <v>25084.66176470588</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -762,6 +984,15 @@
       <c r="D25">
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>70.4807859</v>
+      </c>
+      <c r="F25">
+        <v>-157.3254592</v>
+      </c>
+      <c r="G25">
+        <v>560.65</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -778,6 +1009,15 @@
       <c r="D26">
         <v>0</v>
       </c>
+      <c r="E26">
+        <v>71.25408349999999</v>
+      </c>
+      <c r="F26">
+        <v>-156.798949</v>
+      </c>
+      <c r="G26">
+        <v>11259.55498866213</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -794,6 +1034,15 @@
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="E27">
+        <v>60.19053</v>
+      </c>
+      <c r="F27">
+        <v>-149.36853</v>
+      </c>
+      <c r="G27">
+        <v>549</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -810,6 +1059,15 @@
       <c r="D28">
         <v>0</v>
       </c>
+      <c r="E28">
+        <v>66.390584</v>
+      </c>
+      <c r="F28">
+        <v>-147.337916</v>
+      </c>
+      <c r="G28">
+        <v>10739.2647707231</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -826,6 +1084,15 @@
       <c r="D29">
         <v>29.47845804988662</v>
       </c>
+      <c r="E29">
+        <v>61.1912944</v>
+      </c>
+      <c r="F29">
+        <v>-151.1860273</v>
+      </c>
+      <c r="G29">
+        <v>295.9416099773243</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -842,6 +1109,15 @@
       <c r="D30">
         <v>0</v>
       </c>
+      <c r="E30">
+        <v>60.792913</v>
+      </c>
+      <c r="F30">
+        <v>-161.7934051</v>
+      </c>
+      <c r="G30">
+        <v>302420.2221964543</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -858,6 +1134,15 @@
       <c r="D31">
         <v>0</v>
       </c>
+      <c r="E31">
+        <v>66.9063183</v>
+      </c>
+      <c r="F31">
+        <v>-151.5377373</v>
+      </c>
+      <c r="G31">
+        <v>502.3027646956218</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -874,6 +1159,15 @@
       <c r="D32">
         <v>0</v>
       </c>
+      <c r="E32">
+        <v>61.5220256</v>
+      </c>
+      <c r="F32">
+        <v>-149.967886</v>
+      </c>
+      <c r="G32">
+        <v>1968.605263157895</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -890,6 +1184,15 @@
       <c r="D33">
         <v>0</v>
       </c>
+      <c r="E33">
+        <v>66.26652540000001</v>
+      </c>
+      <c r="F33">
+        <v>-145.8738782</v>
+      </c>
+      <c r="G33">
+        <v>1132.640235260771</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -906,6 +1209,15 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34">
+        <v>60.97361</v>
+      </c>
+      <c r="F34">
+        <v>-149.46583</v>
+      </c>
+      <c r="G34">
+        <v>52.03571428571429</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -922,6 +1234,15 @@
       <c r="D35">
         <v>0</v>
       </c>
+      <c r="E35">
+        <v>65.34392</v>
+      </c>
+      <c r="F35">
+        <v>-166.5084927</v>
+      </c>
+      <c r="G35">
+        <v>14835.16666666667</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -938,6 +1259,15 @@
       <c r="D36">
         <v>0</v>
       </c>
+      <c r="E36">
+        <v>65.9761063</v>
+      </c>
+      <c r="F36">
+        <v>-161.1386987</v>
+      </c>
+      <c r="G36">
+        <v>5232.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -954,6 +1284,15 @@
       <c r="D37">
         <v>0</v>
       </c>
+      <c r="E37">
+        <v>61.5488829</v>
+      </c>
+      <c r="F37">
+        <v>-148.9832854</v>
+      </c>
+      <c r="G37">
+        <v>352.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -970,6 +1309,15 @@
       <c r="D38">
         <v>56.23582766439909</v>
       </c>
+      <c r="E38">
+        <v>63.3864347</v>
+      </c>
+      <c r="F38">
+        <v>-148.8031379</v>
+      </c>
+      <c r="G38">
+        <v>350.2881608783865</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -986,6 +1334,15 @@
       <c r="D39">
         <v>0</v>
       </c>
+      <c r="E39">
+        <v>67.15483999999999</v>
+      </c>
+      <c r="F39">
+        <v>-142.08782</v>
+      </c>
+      <c r="G39">
+        <v>100.2267573696145</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1002,6 +1359,15 @@
       <c r="D40">
         <v>0</v>
       </c>
+      <c r="E40">
+        <v>65.5076037</v>
+      </c>
+      <c r="F40">
+        <v>-144.6279449</v>
+      </c>
+      <c r="G40">
+        <v>1641.122448979592</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1018,6 +1384,15 @@
       <c r="D41">
         <v>0</v>
       </c>
+      <c r="E41">
+        <v>66.6466935</v>
+      </c>
+      <c r="F41">
+        <v>-143.798881</v>
+      </c>
+      <c r="G41">
+        <v>1567.723143424036</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1034,6 +1409,15 @@
       <c r="D42">
         <v>0</v>
       </c>
+      <c r="E42">
+        <v>65.11221999999999</v>
+      </c>
+      <c r="F42">
+        <v>-147.47722</v>
+      </c>
+      <c r="G42">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1050,6 +1434,15 @@
       <c r="D43">
         <v>0</v>
       </c>
+      <c r="E43">
+        <v>57.51528</v>
+      </c>
+      <c r="F43">
+        <v>-134.94361</v>
+      </c>
+      <c r="G43">
+        <v>484</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1066,6 +1459,15 @@
       <c r="D44">
         <v>0</v>
       </c>
+      <c r="E44">
+        <v>60.1512201</v>
+      </c>
+      <c r="F44">
+        <v>-164.2513642</v>
+      </c>
+      <c r="G44">
+        <v>1104.472675736961</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1082,6 +1484,15 @@
       <c r="D45">
         <v>0</v>
       </c>
+      <c r="E45">
+        <v>59.97779</v>
+      </c>
+      <c r="F45">
+        <v>-154.26403</v>
+      </c>
+      <c r="G45">
+        <v>522</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1098,6 +1509,15 @@
       <c r="D46">
         <v>446.7876039304611</v>
       </c>
+      <c r="E46">
+        <v>60.0919044</v>
+      </c>
+      <c r="F46">
+        <v>-147.9946917</v>
+      </c>
+      <c r="G46">
+        <v>2265.922852766838</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1114,6 +1534,15 @@
       <c r="D47">
         <v>0</v>
       </c>
+      <c r="E47">
+        <v>61.5308831</v>
+      </c>
+      <c r="F47">
+        <v>-165.5971753</v>
+      </c>
+      <c r="G47">
+        <v>454.4757266542981</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1130,6 +1559,15 @@
       <c r="D48">
         <v>0</v>
       </c>
+      <c r="E48">
+        <v>61.8002752</v>
+      </c>
+      <c r="F48">
+        <v>-148.371464</v>
+      </c>
+      <c r="G48">
+        <v>849.6029411764706</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1146,6 +1584,15 @@
       <c r="D49">
         <v>0</v>
       </c>
+      <c r="E49">
+        <v>64.0876576</v>
+      </c>
+      <c r="F49">
+        <v>-141.8281295</v>
+      </c>
+      <c r="G49">
+        <v>94.11111111111111</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1162,6 +1609,15 @@
       <c r="D50">
         <v>1939.68253968254</v>
       </c>
+      <c r="E50">
+        <v>56.2943551</v>
+      </c>
+      <c r="F50">
+        <v>-158.3956434</v>
+      </c>
+      <c r="G50">
+        <v>6843.939497010925</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1178,6 +1634,15 @@
       <c r="D51">
         <v>2004.081632653061</v>
       </c>
+      <c r="E51">
+        <v>56.3046229</v>
+      </c>
+      <c r="F51">
+        <v>-158.4985104</v>
+      </c>
+      <c r="G51">
+        <v>8152.677102659245</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1194,6 +1659,15 @@
       <c r="D52">
         <v>1017.913832199546</v>
       </c>
+      <c r="E52">
+        <v>56.2719692</v>
+      </c>
+      <c r="F52">
+        <v>-158.7891075</v>
+      </c>
+      <c r="G52">
+        <v>6941.410173160173</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1210,6 +1684,15 @@
       <c r="D53">
         <v>0</v>
       </c>
+      <c r="E53">
+        <v>62.1104841</v>
+      </c>
+      <c r="F53">
+        <v>-142.0486415</v>
+      </c>
+      <c r="G53">
+        <v>356.875</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1226,6 +1709,15 @@
       <c r="D54">
         <v>50.34013605442177</v>
       </c>
+      <c r="E54">
+        <v>62.5964435</v>
+      </c>
+      <c r="F54">
+        <v>-144.9410445</v>
+      </c>
+      <c r="G54">
+        <v>2153.219841269841</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1242,6 +1734,15 @@
       <c r="D55">
         <v>0</v>
       </c>
+      <c r="E55">
+        <v>61.5519038</v>
+      </c>
+      <c r="F55">
+        <v>-144.1758485</v>
+      </c>
+      <c r="G55">
+        <v>6168.171052631579</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1258,6 +1759,15 @@
       <c r="D56">
         <v>0</v>
       </c>
+      <c r="E56">
+        <v>61.5755394</v>
+      </c>
+      <c r="F56">
+        <v>-159.2470698</v>
+      </c>
+      <c r="G56">
+        <v>16157.78947368421</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1274,6 +1784,15 @@
       <c r="D57">
         <v>0</v>
       </c>
+      <c r="E57">
+        <v>65.838956</v>
+      </c>
+      <c r="F57">
+        <v>-144.1796379</v>
+      </c>
+      <c r="G57">
+        <v>16616.91409897292</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1290,6 +1809,15 @@
       <c r="D58">
         <v>91.60997732426304</v>
       </c>
+      <c r="E58">
+        <v>58.8333687</v>
+      </c>
+      <c r="F58">
+        <v>-158.5288099</v>
+      </c>
+      <c r="G58">
+        <v>5140.252105604146</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1306,6 +1834,15 @@
       <c r="D59">
         <v>0</v>
       </c>
+      <c r="E59">
+        <v>64.29095</v>
+      </c>
+      <c r="F59">
+        <v>-149.17992</v>
+      </c>
+      <c r="G59">
+        <v>457.7105263157895</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1322,6 +1859,15 @@
       <c r="D60">
         <v>4743.310657596372</v>
       </c>
+      <c r="E60">
+        <v>56.0131835</v>
+      </c>
+      <c r="F60">
+        <v>-132.8318903</v>
+      </c>
+      <c r="G60">
+        <v>6304.452191987906</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1338,6 +1884,15 @@
       <c r="D61">
         <v>0</v>
       </c>
+      <c r="E61">
+        <v>55.2155826</v>
+      </c>
+      <c r="F61">
+        <v>-162.7761066</v>
+      </c>
+      <c r="G61">
+        <v>1588.475028344671</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1354,6 +1909,15 @@
       <c r="D62">
         <v>0</v>
       </c>
+      <c r="E62">
+        <v>67.2474514</v>
+      </c>
+      <c r="F62">
+        <v>-150.1080508</v>
+      </c>
+      <c r="G62">
+        <v>86.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1370,6 +1934,15 @@
       <c r="D63">
         <v>0</v>
       </c>
+      <c r="E63">
+        <v>64.8700857</v>
+      </c>
+      <c r="F63">
+        <v>-147.8072737</v>
+      </c>
+      <c r="G63">
+        <v>462.7884615384616</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1386,6 +1959,15 @@
       <c r="D64">
         <v>265.7596371882086</v>
       </c>
+      <c r="E64">
+        <v>60.4962232</v>
+      </c>
+      <c r="F64">
+        <v>-149.8240724</v>
+      </c>
+      <c r="G64">
+        <v>849.9362811791384</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1402,6 +1984,15 @@
       <c r="D65">
         <v>330.6122448979592</v>
       </c>
+      <c r="E65">
+        <v>61.9845493</v>
+      </c>
+      <c r="F65">
+        <v>-145.3543424</v>
+      </c>
+      <c r="G65">
+        <v>30092.72355442177</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1418,6 +2009,15 @@
       <c r="D66">
         <v>0</v>
       </c>
+      <c r="E66">
+        <v>62.419</v>
+      </c>
+      <c r="F66">
+        <v>-145.245</v>
+      </c>
+      <c r="G66">
+        <v>998.5833333333334</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1434,6 +2034,15 @@
       <c r="D67">
         <v>5585.124716553288</v>
       </c>
+      <c r="E67">
+        <v>60.530138</v>
+      </c>
+      <c r="F67">
+        <v>-145.6420649</v>
+      </c>
+      <c r="G67">
+        <v>19838.56818918043</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1450,6 +2059,15 @@
       <c r="D68">
         <v>22877.55102040816</v>
       </c>
+      <c r="E68">
+        <v>55.4925198</v>
+      </c>
+      <c r="F68">
+        <v>-133.1133595</v>
+      </c>
+      <c r="G68">
+        <v>42606.33438981653</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1466,6 +2084,15 @@
       <c r="D69">
         <v>0</v>
       </c>
+      <c r="E69">
+        <v>61.8241191</v>
+      </c>
+      <c r="F69">
+        <v>-158.0637069</v>
+      </c>
+      <c r="G69">
+        <v>12365.3552631579</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1482,6 +2109,15 @@
       <c r="D70">
         <v>0</v>
       </c>
+      <c r="E70">
+        <v>57.5612</v>
+      </c>
+      <c r="F70">
+        <v>-134.431</v>
+      </c>
+      <c r="G70">
+        <v>162</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1498,6 +2134,15 @@
       <c r="D71">
         <v>12.24489795918367</v>
       </c>
+      <c r="E71">
+        <v>66.06931330000001</v>
+      </c>
+      <c r="F71">
+        <v>-162.7686104</v>
+      </c>
+      <c r="G71">
+        <v>6254.672619047619</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1514,6 +2159,15 @@
       <c r="D72">
         <v>0</v>
       </c>
+      <c r="E72">
+        <v>64.0602627</v>
+      </c>
+      <c r="F72">
+        <v>-145.6935287</v>
+      </c>
+      <c r="G72">
+        <v>15821.02631578947</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1530,6 +2184,15 @@
       <c r="D73">
         <v>4923.809523809524</v>
       </c>
+      <c r="E73">
+        <v>59.0549512</v>
+      </c>
+      <c r="F73">
+        <v>-158.5406572</v>
+      </c>
+      <c r="G73">
+        <v>98183.38242115028</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1546,6 +2209,15 @@
       <c r="D74">
         <v>0</v>
       </c>
+      <c r="E74">
+        <v>65.7537691</v>
+      </c>
+      <c r="F74">
+        <v>-168.9231512</v>
+      </c>
+      <c r="G74">
+        <v>21142.22222222222</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1562,6 +2234,15 @@
       <c r="D75">
         <v>1.8140589569161</v>
       </c>
+      <c r="E75">
+        <v>63.5964865</v>
+      </c>
+      <c r="F75">
+        <v>-144.2836185</v>
+      </c>
+      <c r="G75">
+        <v>383.9909651360544</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1578,6 +2259,15 @@
       <c r="D76">
         <v>0</v>
       </c>
+      <c r="E76">
+        <v>63.6266379</v>
+      </c>
+      <c r="F76">
+        <v>-144.639194</v>
+      </c>
+      <c r="G76">
+        <v>720.1788548752834</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1594,6 +2284,15 @@
       <c r="D77">
         <v>0</v>
       </c>
+      <c r="E77">
+        <v>64.7801166</v>
+      </c>
+      <c r="F77">
+        <v>-141.1933195</v>
+      </c>
+      <c r="G77">
+        <v>39787.77224223023</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1610,6 +2309,15 @@
       <c r="D78">
         <v>392.2902494331066</v>
       </c>
+      <c r="E78">
+        <v>55.9756602</v>
+      </c>
+      <c r="F78">
+        <v>-133.6843649</v>
+      </c>
+      <c r="G78">
+        <v>1362.428665910809</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1626,6 +2334,15 @@
       <c r="D79">
         <v>0</v>
       </c>
+      <c r="E79">
+        <v>60.2140502</v>
+      </c>
+      <c r="F79">
+        <v>-162.0304829</v>
+      </c>
+      <c r="G79">
+        <v>25724.05104740309</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1642,6 +2359,15 @@
       <c r="D80">
         <v>0</v>
       </c>
+      <c r="E80">
+        <v>58.2051475</v>
+      </c>
+      <c r="F80">
+        <v>-157.5219777</v>
+      </c>
+      <c r="G80">
+        <v>6345.01388888889</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1658,6 +2384,15 @@
       <c r="D81">
         <v>0</v>
       </c>
+      <c r="E81">
+        <v>64.66410070000001</v>
+      </c>
+      <c r="F81">
+        <v>-147.0362969</v>
+      </c>
+      <c r="G81">
+        <v>7452.118421052632</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1674,6 +2409,15 @@
       <c r="D82">
         <v>0</v>
       </c>
+      <c r="E82">
+        <v>61.37226</v>
+      </c>
+      <c r="F82">
+        <v>-149.03067</v>
+      </c>
+      <c r="G82">
+        <v>29.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1690,6 +2434,15 @@
       <c r="D83">
         <v>0</v>
       </c>
+      <c r="E83">
+        <v>58.81499</v>
+      </c>
+      <c r="F83">
+        <v>-158.55768</v>
+      </c>
+      <c r="G83">
+        <v>356.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1706,6 +2459,15 @@
       <c r="D84">
         <v>0</v>
       </c>
+      <c r="E84">
+        <v>59.3456639</v>
+      </c>
+      <c r="F84">
+        <v>-157.4880056</v>
+      </c>
+      <c r="G84">
+        <v>12726.359375</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1722,6 +2484,15 @@
       <c r="D85">
         <v>0</v>
       </c>
+      <c r="E85">
+        <v>58.1911751</v>
+      </c>
+      <c r="F85">
+        <v>-136.3125245</v>
+      </c>
+      <c r="G85">
+        <v>303.4395904195011</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1738,6 +2509,15 @@
       <c r="D86">
         <v>0</v>
       </c>
+      <c r="E86">
+        <v>64.6183851</v>
+      </c>
+      <c r="F86">
+        <v>-162.2733864</v>
+      </c>
+      <c r="G86">
+        <v>23479.82954545454</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1754,6 +2534,15 @@
       <c r="D87">
         <v>0</v>
       </c>
+      <c r="E87">
+        <v>60.89556</v>
+      </c>
+      <c r="F87">
+        <v>-146.6975</v>
+      </c>
+      <c r="G87">
+        <v>175.75</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1770,6 +2559,15 @@
       <c r="D88">
         <v>0</v>
       </c>
+      <c r="E88">
+        <v>62.7854145</v>
+      </c>
+      <c r="F88">
+        <v>-164.5524485</v>
+      </c>
+      <c r="G88">
+        <v>60611.02631578947</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1786,6 +2584,15 @@
       <c r="D89">
         <v>0</v>
       </c>
+      <c r="E89">
+        <v>64.8790528</v>
+      </c>
+      <c r="F89">
+        <v>-148.0411591</v>
+      </c>
+      <c r="G89">
+        <v>2435.857794784581</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1802,6 +2609,15 @@
       <c r="D90">
         <v>0</v>
       </c>
+      <c r="E90">
+        <v>66.9329734</v>
+      </c>
+      <c r="F90">
+        <v>-151.3689287</v>
+      </c>
+      <c r="G90">
+        <v>244.4444444444444</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1818,6 +2634,15 @@
       <c r="D91">
         <v>0</v>
       </c>
+      <c r="E91">
+        <v>58.4145647</v>
+      </c>
+      <c r="F91">
+        <v>-135.3457114</v>
+      </c>
+      <c r="G91">
+        <v>240.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1834,6 +2659,15 @@
       <c r="D92">
         <v>0</v>
       </c>
+      <c r="E92">
+        <v>64.8365307</v>
+      </c>
+      <c r="F92">
+        <v>-147.6517447</v>
+      </c>
+      <c r="G92">
+        <v>120920.0038872692</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1850,6 +2684,15 @@
       <c r="D93">
         <v>0</v>
       </c>
+      <c r="E93">
+        <v>54.8724411</v>
+      </c>
+      <c r="F93">
+        <v>-163.3342679</v>
+      </c>
+      <c r="G93">
+        <v>3340.546626984127</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1866,6 +2709,15 @@
       <c r="D94">
         <v>0</v>
       </c>
+      <c r="E94">
+        <v>63.8997943</v>
+      </c>
+      <c r="F94">
+        <v>-145.5935877</v>
+      </c>
+      <c r="G94">
+        <v>430.09375</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1882,6 +2734,15 @@
       <c r="D95">
         <v>0</v>
       </c>
+      <c r="E95">
+        <v>66.5876075</v>
+      </c>
+      <c r="F95">
+        <v>-145.2291919</v>
+      </c>
+      <c r="G95">
+        <v>54032.19201013739</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1898,6 +2759,15 @@
       <c r="D96">
         <v>0</v>
       </c>
+      <c r="E96">
+        <v>64.97505409999999</v>
+      </c>
+      <c r="F96">
+        <v>-147.6088374</v>
+      </c>
+      <c r="G96">
+        <v>122.875</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1914,6 +2784,15 @@
       <c r="D97">
         <v>1482.086167800454</v>
       </c>
+      <c r="E97">
+        <v>59.7468194</v>
+      </c>
+      <c r="F97">
+        <v>-151.2887076</v>
+      </c>
+      <c r="G97">
+        <v>1756.628968253968</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1930,6 +2809,15 @@
       <c r="D98">
         <v>0</v>
       </c>
+      <c r="E98">
+        <v>62.3607819</v>
+      </c>
+      <c r="F98">
+        <v>-145.2656691</v>
+      </c>
+      <c r="G98">
+        <v>13792.89473684211</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1946,6 +2834,15 @@
       <c r="D99">
         <v>94.33106575963718</v>
       </c>
+      <c r="E99">
+        <v>64.7399521</v>
+      </c>
+      <c r="F99">
+        <v>-156.8739688</v>
+      </c>
+      <c r="G99">
+        <v>49176.57653061225</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1962,6 +2859,15 @@
       <c r="D100">
         <v>0</v>
       </c>
+      <c r="E100">
+        <v>63.7772011</v>
+      </c>
+      <c r="F100">
+        <v>-171.7257101</v>
+      </c>
+      <c r="G100">
+        <v>274328.3299319728</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1978,6 +2884,15 @@
       <c r="D101">
         <v>1063.945578231293</v>
       </c>
+      <c r="E101">
+        <v>58.0501048</v>
+      </c>
+      <c r="F101">
+        <v>-135.5125475</v>
+      </c>
+      <c r="G101">
+        <v>1605.442176870748</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1994,6 +2909,15 @@
       <c r="D102">
         <v>0</v>
       </c>
+      <c r="E102">
+        <v>62.1465811</v>
+      </c>
+      <c r="F102">
+        <v>-145.8004787</v>
+      </c>
+      <c r="G102">
+        <v>23810.93421052632</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2010,6 +2934,15 @@
       <c r="D103">
         <v>0</v>
       </c>
+      <c r="E103">
+        <v>64.5636669</v>
+      </c>
+      <c r="F103">
+        <v>-163.0010031</v>
+      </c>
+      <c r="G103">
+        <v>9378.973684210527</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2026,6 +2959,15 @@
       <c r="D104">
         <v>0</v>
       </c>
+      <c r="E104">
+        <v>59.1287126</v>
+      </c>
+      <c r="F104">
+        <v>-161.5756562</v>
+      </c>
+      <c r="G104">
+        <v>11464.56666666667</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2042,6 +2984,15 @@
       <c r="D105">
         <v>0</v>
       </c>
+      <c r="E105">
+        <v>62.8954429</v>
+      </c>
+      <c r="F105">
+        <v>-160.1117924</v>
+      </c>
+      <c r="G105">
+        <v>43198.18027210885</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2058,6 +3009,15 @@
       <c r="D106">
         <v>0</v>
       </c>
+      <c r="E106">
+        <v>62.2151827</v>
+      </c>
+      <c r="F106">
+        <v>-145.4448865</v>
+      </c>
+      <c r="G106">
+        <v>1756.75</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2074,6 +3034,15 @@
       <c r="D107">
         <v>0</v>
       </c>
+      <c r="E107">
+        <v>58.4224035</v>
+      </c>
+      <c r="F107">
+        <v>-135.7630345</v>
+      </c>
+      <c r="G107">
+        <v>1682.372661564626</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2090,6 +3059,15 @@
       <c r="D108">
         <v>10477.09750566893</v>
       </c>
+      <c r="E108">
+        <v>59.2608681</v>
+      </c>
+      <c r="F108">
+        <v>-135.472371</v>
+      </c>
+      <c r="G108">
+        <v>49703.40804988662</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2106,6 +3084,15 @@
       <c r="D109">
         <v>0</v>
       </c>
+      <c r="E109">
+        <v>59.5736718</v>
+      </c>
+      <c r="F109">
+        <v>-151.2241924</v>
+      </c>
+      <c r="G109">
+        <v>47.25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2122,6 +3109,15 @@
       <c r="D110">
         <v>0</v>
       </c>
+      <c r="E110">
+        <v>63.9598057</v>
+      </c>
+      <c r="F110">
+        <v>-148.9704796</v>
+      </c>
+      <c r="G110">
+        <v>8583.578947368422</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2138,6 +3134,15 @@
       <c r="D111">
         <v>0</v>
       </c>
+      <c r="E111">
+        <v>64.01045740000001</v>
+      </c>
+      <c r="F111">
+        <v>-144.6786575</v>
+      </c>
+      <c r="G111">
+        <v>424.3579931972789</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2154,6 +3159,15 @@
       <c r="D112">
         <v>3741.496598639455</v>
       </c>
+      <c r="E112">
+        <v>55.5184905</v>
+      </c>
+      <c r="F112">
+        <v>-132.7447917</v>
+      </c>
+      <c r="G112">
+        <v>4519.713647959184</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2170,6 +3184,15 @@
       <c r="D113">
         <v>0</v>
       </c>
+      <c r="E113">
+        <v>62.1870138</v>
+      </c>
+      <c r="F113">
+        <v>-159.8560763</v>
+      </c>
+      <c r="G113">
+        <v>30422.04248717031</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2186,6 +3209,15 @@
       <c r="D114">
         <v>0</v>
       </c>
+      <c r="E114">
+        <v>59.6399849</v>
+      </c>
+      <c r="F114">
+        <v>-151.5112337</v>
+      </c>
+      <c r="G114">
+        <v>2937.683673469388</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2202,6 +3234,15 @@
       <c r="D115">
         <v>24028.1179138322</v>
       </c>
+      <c r="E115">
+        <v>58.1108198</v>
+      </c>
+      <c r="F115">
+        <v>-135.4254709</v>
+      </c>
+      <c r="G115">
+        <v>37994.40293238508</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2218,6 +3259,15 @@
       <c r="D116">
         <v>0</v>
       </c>
+      <c r="E116">
+        <v>61.535469</v>
+      </c>
+      <c r="F116">
+        <v>-166.1217353</v>
+      </c>
+      <c r="G116">
+        <v>47029.04864485477</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2234,6 +3284,15 @@
       <c r="D117">
         <v>275.2834467120181</v>
       </c>
+      <c r="E117">
+        <v>60.8861245</v>
+      </c>
+      <c r="F117">
+        <v>-149.6329912</v>
+      </c>
+      <c r="G117">
+        <v>436.542071590541</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2250,6 +3309,15 @@
       <c r="D118">
         <v>0</v>
       </c>
+      <c r="E118">
+        <v>61.6165147</v>
+      </c>
+      <c r="F118">
+        <v>-149.7717694</v>
+      </c>
+      <c r="G118">
+        <v>365.5972222222222</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2266,6 +3334,15 @@
       <c r="D119">
         <v>0</v>
       </c>
+      <c r="E119">
+        <v>66.04472199999999</v>
+      </c>
+      <c r="F119">
+        <v>-154.2371753</v>
+      </c>
+      <c r="G119">
+        <v>5934.833297902495</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2282,6 +3359,15 @@
       <c r="D120">
         <v>0</v>
       </c>
+      <c r="E120">
+        <v>65.7069705</v>
+      </c>
+      <c r="F120">
+        <v>-156.3058074</v>
+      </c>
+      <c r="G120">
+        <v>15073.73529411765</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2298,6 +3384,15 @@
       <c r="D121">
         <v>18454.42176870748</v>
       </c>
+      <c r="E121">
+        <v>55.2041202</v>
+      </c>
+      <c r="F121">
+        <v>-132.818341</v>
+      </c>
+      <c r="G121">
+        <v>28675.45518842457</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2314,6 +3409,15 @@
       <c r="D122">
         <v>0</v>
       </c>
+      <c r="E122">
+        <v>55.9833128</v>
+      </c>
+      <c r="F122">
+        <v>-130.0418415</v>
+      </c>
+      <c r="G122">
+        <v>713.4552154195011</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2330,6 +3434,15 @@
       <c r="D123">
         <v>0</v>
       </c>
+      <c r="E123">
+        <v>59.305274</v>
+      </c>
+      <c r="F123">
+        <v>-155.8673232</v>
+      </c>
+      <c r="G123">
+        <v>4197.316921768707</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2346,6 +3459,15 @@
       <c r="D124">
         <v>99.31972789115645</v>
       </c>
+      <c r="E124">
+        <v>59.7790384</v>
+      </c>
+      <c r="F124">
+        <v>-154.8752787</v>
+      </c>
+      <c r="G124">
+        <v>23743.78906165641</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2362,6 +3484,15 @@
       <c r="D125">
         <v>0</v>
       </c>
+      <c r="E125">
+        <v>55.9181993</v>
+      </c>
+      <c r="F125">
+        <v>-159.4932984</v>
+      </c>
+      <c r="G125">
+        <v>2418.75</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2378,6 +3509,15 @@
       <c r="D126">
         <v>0</v>
       </c>
+      <c r="E126">
+        <v>58.3727004</v>
+      </c>
+      <c r="F126">
+        <v>-134.1787807</v>
+      </c>
+      <c r="G126">
+        <v>25246.98139558854</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2394,6 +3534,15 @@
       <c r="D127">
         <v>7477.097505668934</v>
       </c>
+      <c r="E127">
+        <v>56.9776983</v>
+      </c>
+      <c r="F127">
+        <v>-133.9043928</v>
+      </c>
+      <c r="G127">
+        <v>18686.95982787054</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2410,6 +3559,15 @@
       <c r="D128">
         <v>0</v>
       </c>
+      <c r="E128">
+        <v>70.1212069</v>
+      </c>
+      <c r="F128">
+        <v>-143.6295306</v>
+      </c>
+      <c r="G128">
+        <v>2881.346238495398</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2426,6 +3584,15 @@
       <c r="D129">
         <v>0</v>
       </c>
+      <c r="E129">
+        <v>64.3138233</v>
+      </c>
+      <c r="F129">
+        <v>-158.7797265</v>
+      </c>
+      <c r="G129">
+        <v>56756.87881819395</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2442,6 +3609,15 @@
       <c r="D130">
         <v>309.297052154195</v>
       </c>
+      <c r="E130">
+        <v>57.5903758</v>
+      </c>
+      <c r="F130">
+        <v>-154.3649485</v>
+      </c>
+      <c r="G130">
+        <v>1254.559890622916</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2458,6 +3634,15 @@
       <c r="D131">
         <v>1212.698412698413</v>
       </c>
+      <c r="E131">
+        <v>55.5561001</v>
+      </c>
+      <c r="F131">
+        <v>-132.3993878</v>
+      </c>
+      <c r="G131">
+        <v>2129.690584170176</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2474,6 +3659,15 @@
       <c r="D132">
         <v>0</v>
       </c>
+      <c r="E132">
+        <v>60.8640561</v>
+      </c>
+      <c r="F132">
+        <v>-162.5378634</v>
+      </c>
+      <c r="G132">
+        <v>16794.02941176471</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2490,6 +3684,15 @@
       <c r="D133">
         <v>0</v>
       </c>
+      <c r="E133">
+        <v>60.3220828</v>
+      </c>
+      <c r="F133">
+        <v>-151.2292457</v>
+      </c>
+      <c r="G133">
+        <v>644.4065255731922</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2506,6 +3709,15 @@
       <c r="D134">
         <v>18601.66288737717</v>
       </c>
+      <c r="E134">
+        <v>60.5622743</v>
+      </c>
+      <c r="F134">
+        <v>-151.2079714</v>
+      </c>
+      <c r="G134">
+        <v>21144.68197278912</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2522,6 +3734,15 @@
       <c r="D135">
         <v>0</v>
       </c>
+      <c r="E135">
+        <v>61.6271712</v>
+      </c>
+      <c r="F135">
+        <v>-144.8629762</v>
+      </c>
+      <c r="G135">
+        <v>4259.821428571428</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2538,6 +3759,15 @@
       <c r="D136">
         <v>0</v>
       </c>
+      <c r="E136">
+        <v>55.3576955</v>
+      </c>
+      <c r="F136">
+        <v>-131.6747116</v>
+      </c>
+      <c r="G136">
+        <v>41496.4663729128</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2554,6 +3784,15 @@
       <c r="D137">
         <v>610.4308390022676</v>
       </c>
+      <c r="E137">
+        <v>66.9713218</v>
+      </c>
+      <c r="F137">
+        <v>-160.4376245</v>
+      </c>
+      <c r="G137">
+        <v>12803.55112347969</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2570,6 +3809,15 @@
       <c r="D138">
         <v>4400</v>
       </c>
+      <c r="E138">
+        <v>55.0800616</v>
+      </c>
+      <c r="F138">
+        <v>-162.3213762</v>
+      </c>
+      <c r="G138">
+        <v>22194.09977324263</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2586,6 +3834,15 @@
       <c r="D139">
         <v>0</v>
       </c>
+      <c r="E139">
+        <v>64.85169999999999</v>
+      </c>
+      <c r="F139">
+        <v>-166.11122</v>
+      </c>
+      <c r="G139">
+        <v>15905.45454545455</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2602,6 +3859,15 @@
       <c r="D140">
         <v>439.9092970521542</v>
       </c>
+      <c r="E140">
+        <v>58.7363372</v>
+      </c>
+      <c r="F140">
+        <v>-156.5255861</v>
+      </c>
+      <c r="G140">
+        <v>16829.07514172336</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2618,6 +3884,15 @@
       <c r="D141">
         <v>0</v>
       </c>
+      <c r="E141">
+        <v>59.9401303</v>
+      </c>
+      <c r="F141">
+        <v>-164.0674093</v>
+      </c>
+      <c r="G141">
+        <v>3512.112871464376</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2634,6 +3909,15 @@
       <c r="D142">
         <v>25.3968253968254</v>
       </c>
+      <c r="E142">
+        <v>67.72857930000001</v>
+      </c>
+      <c r="F142">
+        <v>-164.5396878</v>
+      </c>
+      <c r="G142">
+        <v>7666.840450995212</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2650,6 +3934,15 @@
       <c r="D143">
         <v>14326.5306122449</v>
       </c>
+      <c r="E143">
+        <v>55.5563393</v>
+      </c>
+      <c r="F143">
+        <v>-133.0877413</v>
+      </c>
+      <c r="G143">
+        <v>30577.6485260771</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2666,6 +3959,15 @@
       <c r="D144">
         <v>736.5079365079365</v>
       </c>
+      <c r="E144">
+        <v>59.398162</v>
+      </c>
+      <c r="F144">
+        <v>-135.8895065</v>
+      </c>
+      <c r="G144">
+        <v>2665.926141885326</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2682,6 +3984,15 @@
       <c r="D145">
         <v>0</v>
       </c>
+      <c r="E145">
+        <v>61.4616096</v>
+      </c>
+      <c r="F145">
+        <v>-149.0082185</v>
+      </c>
+      <c r="G145">
+        <v>114.375</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2698,6 +4009,15 @@
       <c r="D146">
         <v>0</v>
       </c>
+      <c r="E146">
+        <v>66.92409170000001</v>
+      </c>
+      <c r="F146">
+        <v>-156.9046795</v>
+      </c>
+      <c r="G146">
+        <v>5620.575</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2714,6 +4034,15 @@
       <c r="D147">
         <v>37447.16553287982</v>
       </c>
+      <c r="E147">
+        <v>57.7923169</v>
+      </c>
+      <c r="F147">
+        <v>-152.4040066</v>
+      </c>
+      <c r="G147">
+        <v>110270.8856936714</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2730,6 +4059,15 @@
       <c r="D148">
         <v>146.485260770975</v>
       </c>
+      <c r="E148">
+        <v>59.4133374</v>
+      </c>
+      <c r="F148">
+        <v>-154.7474517</v>
+      </c>
+      <c r="G148">
+        <v>31920.41426570628</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2746,6 +4084,15 @@
       <c r="D149">
         <v>0</v>
       </c>
+      <c r="E149">
+        <v>59.6965804</v>
+      </c>
+      <c r="F149">
+        <v>-157.2249515</v>
+      </c>
+      <c r="G149">
+        <v>18477.86777210884</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2762,6 +4109,15 @@
       <c r="D150">
         <v>0</v>
       </c>
+      <c r="E150">
+        <v>59.9644575</v>
+      </c>
+      <c r="F150">
+        <v>-162.8828633</v>
+      </c>
+      <c r="G150">
+        <v>16954.48546691404</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2778,6 +4134,15 @@
       <c r="D151">
         <v>0</v>
       </c>
+      <c r="E151">
+        <v>63.0288747</v>
+      </c>
+      <c r="F151">
+        <v>-163.5357321</v>
+      </c>
+      <c r="G151">
+        <v>41600.16666666667</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2794,6 +4159,15 @@
       <c r="D152">
         <v>327.891156462585</v>
       </c>
+      <c r="E152">
+        <v>66.8704517</v>
+      </c>
+      <c r="F152">
+        <v>-162.5114473</v>
+      </c>
+      <c r="G152">
+        <v>51618.41504329004</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2810,6 +4184,15 @@
       <c r="D153">
         <v>0</v>
       </c>
+      <c r="E153">
+        <v>64.9396069</v>
+      </c>
+      <c r="F153">
+        <v>-161.1512722</v>
+      </c>
+      <c r="G153">
+        <v>18473.8</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2826,6 +4209,15 @@
       <c r="D154">
         <v>0</v>
       </c>
+      <c r="E154">
+        <v>64.9022781</v>
+      </c>
+      <c r="F154">
+        <v>-157.6943029</v>
+      </c>
+      <c r="G154">
+        <v>14819.54361744698</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2842,6 +4234,15 @@
       <c r="D155">
         <v>4.988662131519274</v>
       </c>
+      <c r="E155">
+        <v>60.7910702</v>
+      </c>
+      <c r="F155">
+        <v>-161.4267765</v>
+      </c>
+      <c r="G155">
+        <v>102948.6884637188</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2858,6 +4259,15 @@
       <c r="D156">
         <v>0</v>
       </c>
+      <c r="E156">
+        <v>59.8763155</v>
+      </c>
+      <c r="F156">
+        <v>-163.1583365</v>
+      </c>
+      <c r="G156">
+        <v>1221.004709576138</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2874,6 +4284,15 @@
       <c r="D157">
         <v>0</v>
       </c>
+      <c r="E157">
+        <v>62.2969452</v>
+      </c>
+      <c r="F157">
+        <v>-146.5318448</v>
+      </c>
+      <c r="G157">
+        <v>290.25</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2890,6 +4309,15 @@
       <c r="D158">
         <v>0</v>
       </c>
+      <c r="E158">
+        <v>63.7901173</v>
+      </c>
+      <c r="F158">
+        <v>-152.462155</v>
+      </c>
+      <c r="G158">
+        <v>1475.476028506641</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2906,6 +4334,15 @@
       <c r="D159">
         <v>2776.039304610733</v>
       </c>
+      <c r="E159">
+        <v>57.5509645</v>
+      </c>
+      <c r="F159">
+        <v>-154.0049024</v>
+      </c>
+      <c r="G159">
+        <v>5529.522621747111</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2922,6 +4359,15 @@
       <c r="D160">
         <v>38.32199546485261</v>
       </c>
+      <c r="E160">
+        <v>59.0802102</v>
+      </c>
+      <c r="F160">
+        <v>-156.9052293</v>
+      </c>
+      <c r="G160">
+        <v>6825.787492269636</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2938,6 +4384,15 @@
       <c r="D161">
         <v>0</v>
       </c>
+      <c r="E161">
+        <v>61.3481833</v>
+      </c>
+      <c r="F161">
+        <v>-155.3744025</v>
+      </c>
+      <c r="G161">
+        <v>7020.93567649282</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2954,6 +4409,15 @@
       <c r="D162">
         <v>0</v>
       </c>
+      <c r="E162">
+        <v>61.5158128</v>
+      </c>
+      <c r="F162">
+        <v>-160.3576352</v>
+      </c>
+      <c r="G162">
+        <v>33585.56578947369</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2970,6 +4434,15 @@
       <c r="D163">
         <v>0</v>
       </c>
+      <c r="E163">
+        <v>65.0187573</v>
+      </c>
+      <c r="F163">
+        <v>-150.6452806</v>
+      </c>
+      <c r="G163">
+        <v>27162.30694129504</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2986,6 +4459,15 @@
       <c r="D164">
         <v>1073.469387755102</v>
       </c>
+      <c r="E164">
+        <v>59.0037852</v>
+      </c>
+      <c r="F164">
+        <v>-158.9952357</v>
+      </c>
+      <c r="G164">
+        <v>15205.88414759843</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3002,6 +4484,15 @@
       <c r="D165">
         <v>0</v>
       </c>
+      <c r="E165">
+        <v>61.881129</v>
+      </c>
+      <c r="F165">
+        <v>-162.0608417</v>
+      </c>
+      <c r="G165">
+        <v>37529.04257999496</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3018,6 +4509,15 @@
       <c r="D166">
         <v>0</v>
       </c>
+      <c r="E166">
+        <v>61.453957</v>
+      </c>
+      <c r="F166">
+        <v>-142.864693</v>
+      </c>
+      <c r="G166">
+        <v>484.9705882352941</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3034,6 +4534,15 @@
       <c r="D167">
         <v>0</v>
       </c>
+      <c r="E167">
+        <v>62.938077</v>
+      </c>
+      <c r="F167">
+        <v>-155.5485557</v>
+      </c>
+      <c r="G167">
+        <v>13348.76315789474</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3050,6 +4559,15 @@
       <c r="D168">
         <v>0</v>
       </c>
+      <c r="E168">
+        <v>63.5728698</v>
+      </c>
+      <c r="F168">
+        <v>-148.6734495</v>
+      </c>
+      <c r="G168">
+        <v>39.375</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3066,6 +4584,15 @@
       <c r="D169">
         <v>0</v>
       </c>
+      <c r="E169">
+        <v>61.6382058</v>
+      </c>
+      <c r="F169">
+        <v>-149.609937</v>
+      </c>
+      <c r="G169">
+        <v>419.5833333333333</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3082,6 +4609,15 @@
       <c r="D170">
         <v>0</v>
       </c>
+      <c r="E170">
+        <v>60.3707305</v>
+      </c>
+      <c r="F170">
+        <v>-166.266987</v>
+      </c>
+      <c r="G170">
+        <v>3020.071995464853</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3098,6 +4634,15 @@
       <c r="D171">
         <v>0</v>
       </c>
+      <c r="E171">
+        <v>62.1467396</v>
+      </c>
+      <c r="F171">
+        <v>-146.7611263</v>
+      </c>
+      <c r="G171">
+        <v>305.5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3114,6 +4659,15 @@
       <c r="D172">
         <v>389.1156462585034</v>
       </c>
+      <c r="E172">
+        <v>63.0222062</v>
+      </c>
+      <c r="F172">
+        <v>-143.5073647</v>
+      </c>
+      <c r="G172">
+        <v>1318.506696428571</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3130,6 +4684,15 @@
       <c r="D173">
         <v>0</v>
       </c>
+      <c r="E173">
+        <v>55.1146989</v>
+      </c>
+      <c r="F173">
+        <v>-131.5557262</v>
+      </c>
+      <c r="G173">
+        <v>2818.506683375104</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3146,6 +4709,15 @@
       <c r="D174">
         <v>0</v>
       </c>
+      <c r="E174">
+        <v>55.74083</v>
+      </c>
+      <c r="F174">
+        <v>-132.25639</v>
+      </c>
+      <c r="G174">
+        <v>305.0095371481926</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3162,6 +4734,15 @@
       <c r="D175">
         <v>0</v>
       </c>
+      <c r="E175">
+        <v>65.0896401</v>
+      </c>
+      <c r="F175">
+        <v>-149.5902204</v>
+      </c>
+      <c r="G175">
+        <v>9323.402027477658</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3178,6 +4759,15 @@
       <c r="D176">
         <v>0</v>
       </c>
+      <c r="E176">
+        <v>64.7163687</v>
+      </c>
+      <c r="F176">
+        <v>-147.1666273</v>
+      </c>
+      <c r="G176">
+        <v>75.58333333333333</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3194,6 +4784,15 @@
       <c r="D177">
         <v>0</v>
       </c>
+      <c r="E177">
+        <v>60.5059385</v>
+      </c>
+      <c r="F177">
+        <v>-149.4683638</v>
+      </c>
+      <c r="G177">
+        <v>154.5961538461538</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3210,6 +4809,15 @@
       <c r="D178">
         <v>0</v>
       </c>
+      <c r="E178">
+        <v>62.0944476</v>
+      </c>
+      <c r="F178">
+        <v>-163.7153392</v>
+      </c>
+      <c r="G178">
+        <v>51912.04440665155</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3226,6 +4834,15 @@
       <c r="D179">
         <v>0</v>
       </c>
+      <c r="E179">
+        <v>62.4515707</v>
+      </c>
+      <c r="F179">
+        <v>-142.9345972</v>
+      </c>
+      <c r="G179">
+        <v>190.8571428571429</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3242,6 +4859,15 @@
       <c r="D180">
         <v>1001.360544217687</v>
       </c>
+      <c r="E180">
+        <v>58.798573</v>
+      </c>
+      <c r="F180">
+        <v>-156.90468</v>
+      </c>
+      <c r="G180">
+        <v>25605.1230416409</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3258,6 +4884,15 @@
       <c r="D181">
         <v>1483.068783068783</v>
       </c>
+      <c r="E181">
+        <v>59.3265225</v>
+      </c>
+      <c r="F181">
+        <v>-151.9239022</v>
+      </c>
+      <c r="G181">
+        <v>10059.50384542706</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3274,6 +4909,15 @@
       <c r="D182">
         <v>0</v>
       </c>
+      <c r="E182">
+        <v>60.6828961</v>
+      </c>
+      <c r="F182">
+        <v>-161.9989635</v>
+      </c>
+      <c r="G182">
+        <v>42257.6697845805</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3290,6 +4934,15 @@
       <c r="D183">
         <v>0</v>
       </c>
+      <c r="E183">
+        <v>60.697551</v>
+      </c>
+      <c r="F183">
+        <v>-161.7488913</v>
+      </c>
+      <c r="G183">
+        <v>64766.25</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3306,6 +4959,15 @@
       <c r="D184">
         <v>3560.997732426304</v>
       </c>
+      <c r="E184">
+        <v>55.8772567</v>
+      </c>
+      <c r="F184">
+        <v>-133.2034233</v>
+      </c>
+      <c r="G184">
+        <v>4410.512156714538</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3322,6 +4984,15 @@
       <c r="D185">
         <v>0</v>
       </c>
+      <c r="E185">
+        <v>62.0098565</v>
+      </c>
+      <c r="F185">
+        <v>-146.829712</v>
+      </c>
+      <c r="G185">
+        <v>273.4166666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3338,6 +5009,15 @@
       <c r="D186">
         <v>0</v>
       </c>
+      <c r="E186">
+        <v>55.8988127</v>
+      </c>
+      <c r="F186">
+        <v>-161.5397125</v>
+      </c>
+      <c r="G186">
+        <v>1359.565789473684</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3354,6 +5034,15 @@
       <c r="D187">
         <v>0</v>
       </c>
+      <c r="E187">
+        <v>64.5379033</v>
+      </c>
+      <c r="F187">
+        <v>-149.0718512</v>
+      </c>
+      <c r="G187">
+        <v>51811.23851294904</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3370,6 +5059,15 @@
       <c r="D188">
         <v>39.90929705215419</v>
       </c>
+      <c r="E188">
+        <v>59.4855495</v>
+      </c>
+      <c r="F188">
+        <v>-157.3081091</v>
+      </c>
+      <c r="G188">
+        <v>45643.51573129252</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3386,6 +5084,15 @@
       <c r="D189">
         <v>187.0748299319728</v>
       </c>
+      <c r="E189">
+        <v>59.7368595</v>
+      </c>
+      <c r="F189">
+        <v>-154.9007703</v>
+      </c>
+      <c r="G189">
+        <v>11788.18257302921</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3402,6 +5109,15 @@
       <c r="D190">
         <v>0</v>
       </c>
+      <c r="E190">
+        <v>60.9350524</v>
+      </c>
+      <c r="F190">
+        <v>-164.6459006</v>
+      </c>
+      <c r="G190">
+        <v>990.2354875283446</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3418,6 +5134,15 @@
       <c r="D191">
         <v>0</v>
       </c>
+      <c r="E191">
+        <v>60.4642837</v>
+      </c>
+      <c r="F191">
+        <v>-164.8367146</v>
+      </c>
+      <c r="G191">
+        <v>1846.06021218011</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3434,6 +5159,15 @@
       <c r="D192">
         <v>0</v>
       </c>
+      <c r="E192">
+        <v>60.7249883</v>
+      </c>
+      <c r="F192">
+        <v>-151.2240236</v>
+      </c>
+      <c r="G192">
+        <v>464.8812358276644</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3450,6 +5184,15 @@
       <c r="D193">
         <v>404.5351473922902</v>
       </c>
+      <c r="E193">
+        <v>59.8295526</v>
+      </c>
+      <c r="F193">
+        <v>-151.5963815</v>
+      </c>
+      <c r="G193">
+        <v>753.2380952380952</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3466,6 +5209,15 @@
       <c r="D194">
         <v>2.72108843537415</v>
       </c>
+      <c r="E194">
+        <v>62.9985295</v>
+      </c>
+      <c r="F194">
+        <v>-154.3746102</v>
+      </c>
+      <c r="G194">
+        <v>5225.969835302542</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3482,6 +5234,15 @@
       <c r="D195">
         <v>92.06349206349206</v>
       </c>
+      <c r="E195">
+        <v>52.9994165</v>
+      </c>
+      <c r="F195">
+        <v>-168.7397489</v>
+      </c>
+      <c r="G195">
+        <v>617.4603174603175</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3498,6 +5259,15 @@
       <c r="D196">
         <v>5368.253968253968</v>
       </c>
+      <c r="E196">
+        <v>60.0622461</v>
+      </c>
+      <c r="F196">
+        <v>-151.4041772</v>
+      </c>
+      <c r="G196">
+        <v>6590.233506100853</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3514,6 +5284,15 @@
       <c r="D197">
         <v>15.64625850340136</v>
       </c>
+      <c r="E197">
+        <v>67.5894974</v>
+      </c>
+      <c r="F197">
+        <v>-163.0103322</v>
+      </c>
+      <c r="G197">
+        <v>12970.38217338217</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3530,6 +5309,15 @@
       <c r="D198">
         <v>0</v>
       </c>
+      <c r="E198">
+        <v>64.50573559999999</v>
+      </c>
+      <c r="F198">
+        <v>-165.4153072</v>
+      </c>
+      <c r="G198">
+        <v>22135.64298598228</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3546,6 +5334,15 @@
       <c r="D199">
         <v>29.47845804988662</v>
       </c>
+      <c r="E199">
+        <v>59.9765566</v>
+      </c>
+      <c r="F199">
+        <v>-154.8639208</v>
+      </c>
+      <c r="G199">
+        <v>25311.60355253212</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3562,6 +5359,15 @@
       <c r="D200">
         <v>0</v>
       </c>
+      <c r="E200">
+        <v>66.8271823</v>
+      </c>
+      <c r="F200">
+        <v>-161.029203</v>
+      </c>
+      <c r="G200">
+        <v>27431.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3578,6 +5384,15 @@
       <c r="D201">
         <v>0</v>
       </c>
+      <c r="E201">
+        <v>64.75272820000001</v>
+      </c>
+      <c r="F201">
+        <v>-147.3626554</v>
+      </c>
+      <c r="G201">
+        <v>32257.67105263158</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3594,6 +5409,15 @@
       <c r="D202">
         <v>0</v>
       </c>
+      <c r="E202">
+        <v>62.9598341</v>
+      </c>
+      <c r="F202">
+        <v>-141.8373954</v>
+      </c>
+      <c r="G202">
+        <v>1864.883219954648</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3610,6 +5434,15 @@
       <c r="D203">
         <v>0</v>
       </c>
+      <c r="E203">
+        <v>60.33333</v>
+      </c>
+      <c r="F203">
+        <v>-146.65528</v>
+      </c>
+      <c r="G203">
+        <v>149.3333333333333</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3626,6 +5459,15 @@
       <c r="D204">
         <v>0</v>
       </c>
+      <c r="E204">
+        <v>70.21710160000001</v>
+      </c>
+      <c r="F204">
+        <v>-150.9955451</v>
+      </c>
+      <c r="G204">
+        <v>6268.707482993197</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3642,6 +5484,15 @@
       <c r="D205">
         <v>0</v>
       </c>
+      <c r="E205">
+        <v>64.6898721</v>
+      </c>
+      <c r="F205">
+        <v>-158.2837695</v>
+      </c>
+      <c r="G205">
+        <v>41339.71308893928</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3658,6 +5509,15 @@
       <c r="D206">
         <v>0</v>
       </c>
+      <c r="E206">
+        <v>62.5065349</v>
+      </c>
+      <c r="F206">
+        <v>-164.900384</v>
+      </c>
+      <c r="G206">
+        <v>14293.2</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3674,6 +5534,15 @@
       <c r="D207">
         <v>0</v>
       </c>
+      <c r="E207">
+        <v>60.8802662</v>
+      </c>
+      <c r="F207">
+        <v>-162.4602782</v>
+      </c>
+      <c r="G207">
+        <v>60943.02695893172</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3690,6 +5559,15 @@
       <c r="D208">
         <v>2768.405139833711</v>
       </c>
+      <c r="E208">
+        <v>57.22004</v>
+      </c>
+      <c r="F208">
+        <v>-153.3304978</v>
+      </c>
+      <c r="G208">
+        <v>6717.303820518106</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3706,6 +5584,15 @@
       <c r="D209">
         <v>0</v>
       </c>
+      <c r="E209">
+        <v>70.49970999999999</v>
+      </c>
+      <c r="F209">
+        <v>-149.87953</v>
+      </c>
+      <c r="G209">
+        <v>43.75</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3722,6 +5609,15 @@
       <c r="D210">
         <v>0</v>
       </c>
+      <c r="E210">
+        <v>60.7234283</v>
+      </c>
+      <c r="F210">
+        <v>-161.7875078</v>
+      </c>
+      <c r="G210">
+        <v>16486.76894617496</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3738,6 +5634,15 @@
       <c r="D211">
         <v>1512.320483749055</v>
       </c>
+      <c r="E211">
+        <v>57.9250582</v>
+      </c>
+      <c r="F211">
+        <v>-152.4616558</v>
+      </c>
+      <c r="G211">
+        <v>6885.565948601663</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3754,6 +5659,15 @@
       <c r="D212">
         <v>0</v>
       </c>
+      <c r="E212">
+        <v>61.597369</v>
+      </c>
+      <c r="F212">
+        <v>-149.1147635</v>
+      </c>
+      <c r="G212">
+        <v>20744.54287775717</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3770,6 +5684,15 @@
       <c r="D213">
         <v>0</v>
       </c>
+      <c r="E213">
+        <v>63.0488105</v>
+      </c>
+      <c r="F213">
+        <v>-145.6377662</v>
+      </c>
+      <c r="G213">
+        <v>446.25</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3786,6 +5709,15 @@
       <c r="D214">
         <v>29.93197278911564</v>
       </c>
+      <c r="E214">
+        <v>59.7821613</v>
+      </c>
+      <c r="F214">
+        <v>-154.1079305</v>
+      </c>
+      <c r="G214">
+        <v>11964.39302387622</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3802,6 +5734,15 @@
       <c r="D215">
         <v>0</v>
       </c>
+      <c r="E215">
+        <v>57.9598001</v>
+      </c>
+      <c r="F215">
+        <v>-136.2167527</v>
+      </c>
+      <c r="G215">
+        <v>1992.079777365492</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3818,6 +5759,15 @@
       <c r="D216">
         <v>2085.714285714286</v>
       </c>
+      <c r="E216">
+        <v>55.9301912</v>
+      </c>
+      <c r="F216">
+        <v>-159.1464315</v>
+      </c>
+      <c r="G216">
+        <v>11316.56918934241</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3834,6 +5784,15 @@
       <c r="D217">
         <v>0</v>
       </c>
+      <c r="E217">
+        <v>61.41111</v>
+      </c>
+      <c r="F217">
+        <v>-149.44556</v>
+      </c>
+      <c r="G217">
+        <v>72.0625</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3850,6 +5809,15 @@
       <c r="D218">
         <v>1217801.360544218</v>
       </c>
+      <c r="E218">
+        <v>56.7632089</v>
+      </c>
+      <c r="F218">
+        <v>-132.8757405</v>
+      </c>
+      <c r="G218">
+        <v>1323348.163471449</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3866,6 +5834,15 @@
       <c r="D219">
         <v>0</v>
       </c>
+      <c r="E219">
+        <v>62.4734015</v>
+      </c>
+      <c r="F219">
+        <v>-150.8767873</v>
+      </c>
+      <c r="G219">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3882,6 +5859,15 @@
       <c r="D220">
         <v>0</v>
       </c>
+      <c r="E220">
+        <v>57.5436368</v>
+      </c>
+      <c r="F220">
+        <v>-157.7190163</v>
+      </c>
+      <c r="G220">
+        <v>2827.026315789474</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3898,6 +5884,15 @@
       <c r="D221">
         <v>0</v>
       </c>
+      <c r="E221">
+        <v>61.9466541</v>
+      </c>
+      <c r="F221">
+        <v>-162.8782967</v>
+      </c>
+      <c r="G221">
+        <v>38649.5</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3914,6 +5909,15 @@
       <c r="D222">
         <v>0</v>
       </c>
+      <c r="E222">
+        <v>62.0373931</v>
+      </c>
+      <c r="F222">
+        <v>-163.2668218</v>
+      </c>
+      <c r="G222">
+        <v>10095.26470588235</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3930,6 +5934,15 @@
       <c r="D223">
         <v>0</v>
       </c>
+      <c r="E223">
+        <v>58.9512779</v>
+      </c>
+      <c r="F223">
+        <v>-161.7474913</v>
+      </c>
+      <c r="G223">
+        <v>1379.666666666667</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3946,6 +5959,15 @@
       <c r="D224">
         <v>1257.596371882086</v>
       </c>
+      <c r="E224">
+        <v>56.3481317</v>
+      </c>
+      <c r="F224">
+        <v>-133.6167942</v>
+      </c>
+      <c r="G224">
+        <v>2060.580260174245</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3962,6 +5984,15 @@
       <c r="D225">
         <v>0</v>
       </c>
+      <c r="E225">
+        <v>68.34394570000001</v>
+      </c>
+      <c r="F225">
+        <v>-166.6728799</v>
+      </c>
+      <c r="G225">
+        <v>19373.47727272727</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3978,6 +6009,15 @@
       <c r="D226">
         <v>0</v>
       </c>
+      <c r="E226">
+        <v>69.742065</v>
+      </c>
+      <c r="F226">
+        <v>-162.7582074</v>
+      </c>
+      <c r="G226">
+        <v>21946.375</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3994,6 +6034,15 @@
       <c r="D227">
         <v>0</v>
       </c>
+      <c r="E227">
+        <v>56.235218</v>
+      </c>
+      <c r="F227">
+        <v>-134.6534985</v>
+      </c>
+      <c r="G227">
+        <v>1089.18927941547</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4010,6 +6059,15 @@
       <c r="D228">
         <v>52.15419501133787</v>
       </c>
+      <c r="E228">
+        <v>60.1578492</v>
+      </c>
+      <c r="F228">
+        <v>-154.3406085</v>
+      </c>
+      <c r="G228">
+        <v>6689.523042550353</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4026,6 +6084,15 @@
       <c r="D229">
         <v>1246.560846560847</v>
       </c>
+      <c r="E229">
+        <v>59.3397901</v>
+      </c>
+      <c r="F229">
+        <v>-151.8465013</v>
+      </c>
+      <c r="G229">
+        <v>7890.313794406651</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4042,6 +6109,15 @@
       <c r="D230">
         <v>0</v>
       </c>
+      <c r="E230">
+        <v>56.9641768</v>
+      </c>
+      <c r="F230">
+        <v>-158.5806348</v>
+      </c>
+      <c r="G230">
+        <v>1185.618421052631</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4058,6 +6134,15 @@
       <c r="D231">
         <v>2134.240362811791</v>
       </c>
+      <c r="E231">
+        <v>57.8776128</v>
+      </c>
+      <c r="F231">
+        <v>-152.8658077</v>
+      </c>
+      <c r="G231">
+        <v>8010.375695732839</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -4074,6 +6159,15 @@
       <c r="D232">
         <v>0</v>
       </c>
+      <c r="E232">
+        <v>55.98861</v>
+      </c>
+      <c r="F232">
+        <v>-160.57694</v>
+      </c>
+      <c r="G232">
+        <v>823.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4090,6 +6184,15 @@
       <c r="D233">
         <v>0</v>
       </c>
+      <c r="E233">
+        <v>58.49222</v>
+      </c>
+      <c r="F233">
+        <v>-152.58278</v>
+      </c>
+      <c r="G233">
+        <v>210.8843537414966</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4106,6 +6209,15 @@
       <c r="D234">
         <v>0</v>
       </c>
+      <c r="E234">
+        <v>58.9049084</v>
+      </c>
+      <c r="F234">
+        <v>-157.6690522</v>
+      </c>
+      <c r="G234">
+        <v>601.0178571428571</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4122,6 +6234,15 @@
       <c r="D235">
         <v>0</v>
       </c>
+      <c r="E235">
+        <v>70.3662097</v>
+      </c>
+      <c r="F235">
+        <v>-148.7455286</v>
+      </c>
+      <c r="G235">
+        <v>40.375</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -4138,6 +6259,15 @@
       <c r="D236">
         <v>0</v>
       </c>
+      <c r="E236">
+        <v>59.7554407</v>
+      </c>
+      <c r="F236">
+        <v>-161.8997964</v>
+      </c>
+      <c r="G236">
+        <v>42468.17081529582</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4154,6 +6284,15 @@
       <c r="D237">
         <v>136.0544217687075</v>
       </c>
+      <c r="E237">
+        <v>65.4087212</v>
+      </c>
+      <c r="F237">
+        <v>-149.9916079</v>
+      </c>
+      <c r="G237">
+        <v>18119.4871031746</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4170,6 +6309,15 @@
       <c r="D238">
         <v>0</v>
       </c>
+      <c r="E238">
+        <v>61.7575614</v>
+      </c>
+      <c r="F238">
+        <v>-157.3584514</v>
+      </c>
+      <c r="G238">
+        <v>7048.447368421053</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4186,6 +6334,15 @@
       <c r="D239">
         <v>0</v>
       </c>
+      <c r="E239">
+        <v>56.66836</v>
+      </c>
+      <c r="F239">
+        <v>-134.26291</v>
+      </c>
+      <c r="G239">
+        <v>54</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -4202,6 +6359,15 @@
       <c r="D240">
         <v>29.93197278911564</v>
       </c>
+      <c r="E240">
+        <v>64.7223597</v>
+      </c>
+      <c r="F240">
+        <v>-155.5014326</v>
+      </c>
+      <c r="G240">
+        <v>25040.46105442177</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -4218,6 +6384,15 @@
       <c r="D241">
         <v>0</v>
       </c>
+      <c r="E241">
+        <v>61.7845631</v>
+      </c>
+      <c r="F241">
+        <v>-161.3686281</v>
+      </c>
+      <c r="G241">
+        <v>26479.20588235294</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -4234,6 +6409,15 @@
       <c r="D242">
         <v>0</v>
       </c>
+      <c r="E242">
+        <v>64.53378069999999</v>
+      </c>
+      <c r="F242">
+        <v>-146.8842766</v>
+      </c>
+      <c r="G242">
+        <v>3826.381578947368</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4250,6 +6434,15 @@
       <c r="D243">
         <v>4894.784580498867</v>
       </c>
+      <c r="E243">
+        <v>55.3133683</v>
+      </c>
+      <c r="F243">
+        <v>-160.4835524</v>
+      </c>
+      <c r="G243">
+        <v>24512.89728431055</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4266,6 +6459,15 @@
       <c r="D244">
         <v>0</v>
       </c>
+      <c r="E244">
+        <v>63.6807655</v>
+      </c>
+      <c r="F244">
+        <v>-170.4827819</v>
+      </c>
+      <c r="G244">
+        <v>271843.4895778824</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4282,6 +6484,15 @@
       <c r="D245">
         <v>0</v>
       </c>
+      <c r="E245">
+        <v>55.3228201</v>
+      </c>
+      <c r="F245">
+        <v>-131.5889692</v>
+      </c>
+      <c r="G245">
+        <v>970.1806722689075</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4298,6 +6509,15 @@
       <c r="D246">
         <v>0</v>
       </c>
+      <c r="E246">
+        <v>61.8426245</v>
+      </c>
+      <c r="F246">
+        <v>-165.5832658</v>
+      </c>
+      <c r="G246">
+        <v>19522.0886672851</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4314,6 +6534,15 @@
       <c r="D247">
         <v>0</v>
       </c>
+      <c r="E247">
+        <v>56.83806</v>
+      </c>
+      <c r="F247">
+        <v>-134.3275</v>
+      </c>
+      <c r="G247">
+        <v>340</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4330,6 +6559,15 @@
       <c r="D248">
         <v>0</v>
       </c>
+      <c r="E248">
+        <v>66.5907512</v>
+      </c>
+      <c r="F248">
+        <v>-160.001206</v>
+      </c>
+      <c r="G248">
+        <v>10521.66712018141</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4346,6 +6584,15 @@
       <c r="D249">
         <v>4788.057445200302</v>
       </c>
+      <c r="E249">
+        <v>59.4397147</v>
+      </c>
+      <c r="F249">
+        <v>-151.7117356</v>
+      </c>
+      <c r="G249">
+        <v>9517.991091674765</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4362,6 +6609,15 @@
       <c r="D250">
         <v>0</v>
       </c>
+      <c r="E250">
+        <v>60.1247863</v>
+      </c>
+      <c r="F250">
+        <v>-149.3915808</v>
+      </c>
+      <c r="G250">
+        <v>682.15731292517</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4378,6 +6634,15 @@
       <c r="D251">
         <v>0</v>
       </c>
+      <c r="E251">
+        <v>62.6664182</v>
+      </c>
+      <c r="F251">
+        <v>-159.5353915</v>
+      </c>
+      <c r="G251">
+        <v>15039.33623078861</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4394,6 +6659,15 @@
       <c r="D252">
         <v>0</v>
       </c>
+      <c r="E252">
+        <v>64.3590858</v>
+      </c>
+      <c r="F252">
+        <v>-161.2011001</v>
+      </c>
+      <c r="G252">
+        <v>29195.63636363636</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4410,6 +6684,15 @@
       <c r="D253">
         <v>774.6031746031746</v>
       </c>
+      <c r="E253">
+        <v>66.2349991</v>
+      </c>
+      <c r="F253">
+        <v>-166.1191387</v>
+      </c>
+      <c r="G253">
+        <v>18604.16014739229</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4426,6 +6709,15 @@
       <c r="D254">
         <v>0</v>
       </c>
+      <c r="E254">
+        <v>66.8870986</v>
+      </c>
+      <c r="F254">
+        <v>-157.1639645</v>
+      </c>
+      <c r="G254">
+        <v>22369.6994949495</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4442,6 +6734,15 @@
       <c r="D255">
         <v>111185.0340136054</v>
       </c>
+      <c r="E255">
+        <v>57.1425085</v>
+      </c>
+      <c r="F255">
+        <v>-135.3326236</v>
+      </c>
+      <c r="G255">
+        <v>198411.6257472686</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4458,6 +6759,15 @@
       <c r="D256">
         <v>0</v>
       </c>
+      <c r="E256">
+        <v>59.4643604</v>
+      </c>
+      <c r="F256">
+        <v>-135.2751506</v>
+      </c>
+      <c r="G256">
+        <v>723.3768424036281</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4474,6 +6784,15 @@
       <c r="D257">
         <v>0</v>
       </c>
+      <c r="E257">
+        <v>61.8886894</v>
+      </c>
+      <c r="F257">
+        <v>-151.1999937</v>
+      </c>
+      <c r="G257">
+        <v>680.6607142857143</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -4490,6 +6809,15 @@
       <c r="D258">
         <v>960.0907029478458</v>
       </c>
+      <c r="E258">
+        <v>62.6316822</v>
+      </c>
+      <c r="F258">
+        <v>-143.5948389</v>
+      </c>
+      <c r="G258">
+        <v>5810.403259637188</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -4506,6 +6834,15 @@
       <c r="D259">
         <v>0</v>
       </c>
+      <c r="E259">
+        <v>61.6538615</v>
+      </c>
+      <c r="F259">
+        <v>-157.1030202</v>
+      </c>
+      <c r="G259">
+        <v>14861.52631578947</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -4522,6 +6859,15 @@
       <c r="D260">
         <v>0</v>
       </c>
+      <c r="E260">
+        <v>60.4849958</v>
+      </c>
+      <c r="F260">
+        <v>-151.0687538</v>
+      </c>
+      <c r="G260">
+        <v>1105.721683673469</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -4538,6 +6884,15 @@
       <c r="D261">
         <v>0</v>
       </c>
+      <c r="E261">
+        <v>62.52908</v>
+      </c>
+      <c r="F261">
+        <v>-145.517</v>
+      </c>
+      <c r="G261">
+        <v>394.5</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -4554,6 +6909,15 @@
       <c r="D262">
         <v>103.6281179138322</v>
       </c>
+      <c r="E262">
+        <v>58.6581265</v>
+      </c>
+      <c r="F262">
+        <v>-157.0117384</v>
+      </c>
+      <c r="G262">
+        <v>6824.452679317341</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -4570,6 +6934,15 @@
       <c r="D263">
         <v>87.98185941043084</v>
       </c>
+      <c r="E263">
+        <v>56.5705187</v>
+      </c>
+      <c r="F263">
+        <v>-169.5986811</v>
+      </c>
+      <c r="G263">
+        <v>805.8956916099774</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4586,6 +6959,15 @@
       <c r="D264">
         <v>0</v>
       </c>
+      <c r="E264">
+        <v>62.0652861</v>
+      </c>
+      <c r="F264">
+        <v>-163.2494788</v>
+      </c>
+      <c r="G264">
+        <v>45123.60294117647</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -4602,6 +6984,15 @@
       <c r="D265">
         <v>0</v>
       </c>
+      <c r="E265">
+        <v>63.4648482</v>
+      </c>
+      <c r="F265">
+        <v>-162.1292623</v>
+      </c>
+      <c r="G265">
+        <v>16014.15909090909</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -4618,6 +7009,15 @@
       <c r="D266">
         <v>407.7097505668934</v>
       </c>
+      <c r="E266">
+        <v>57.1790411</v>
+      </c>
+      <c r="F266">
+        <v>-170.3250684</v>
+      </c>
+      <c r="G266">
+        <v>2835.419217687075</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -4634,6 +7034,15 @@
       <c r="D267">
         <v>0</v>
       </c>
+      <c r="E267">
+        <v>63.4346138</v>
+      </c>
+      <c r="F267">
+        <v>-162.2776348</v>
+      </c>
+      <c r="G267">
+        <v>27590.32954545454</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -4650,6 +7059,15 @@
       <c r="D268">
         <v>0</v>
       </c>
+      <c r="E268">
+        <v>60.5403734</v>
+      </c>
+      <c r="F268">
+        <v>-150.8067869</v>
+      </c>
+      <c r="G268">
+        <v>229.1330409356725</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -4666,6 +7084,15 @@
       <c r="D269">
         <v>0</v>
       </c>
+      <c r="E269">
+        <v>66.0235904</v>
+      </c>
+      <c r="F269">
+        <v>-149.0815924</v>
+      </c>
+      <c r="G269">
+        <v>16662.69887955182</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4682,6 +7109,15 @@
       <c r="D270">
         <v>0</v>
       </c>
+      <c r="E270">
+        <v>61.7930809</v>
+      </c>
+      <c r="F270">
+        <v>-156.5869665</v>
+      </c>
+      <c r="G270">
+        <v>9468.764705882353</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -4698,6 +7134,15 @@
       <c r="D271">
         <v>0</v>
       </c>
+      <c r="E271">
+        <v>61.7307111</v>
+      </c>
+      <c r="F271">
+        <v>-148.8784458</v>
+      </c>
+      <c r="G271">
+        <v>1433.302631578947</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4714,6 +7159,15 @@
       <c r="D272">
         <v>0</v>
       </c>
+      <c r="E272">
+        <v>62.9823415</v>
+      </c>
+      <c r="F272">
+        <v>-156.0840594</v>
+      </c>
+      <c r="G272">
+        <v>241.9642857142857</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4730,6 +7184,15 @@
       <c r="D273">
         <v>0</v>
       </c>
+      <c r="E273">
+        <v>62.2713769</v>
+      </c>
+      <c r="F273">
+        <v>-150.084564</v>
+      </c>
+      <c r="G273">
+        <v>617.3815789473684</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -4746,6 +7209,15 @@
       <c r="D274">
         <v>0</v>
       </c>
+      <c r="E274">
+        <v>63.3286866</v>
+      </c>
+      <c r="F274">
+        <v>-143.4945171</v>
+      </c>
+      <c r="G274">
+        <v>540.9870323129252</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4762,6 +7234,15 @@
       <c r="D275">
         <v>0</v>
       </c>
+      <c r="E275">
+        <v>65.1845551</v>
+      </c>
+      <c r="F275">
+        <v>-152.0546429</v>
+      </c>
+      <c r="G275">
+        <v>115738.0261437909</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -4778,6 +7259,15 @@
       <c r="D276">
         <v>312.6530612244898</v>
       </c>
+      <c r="E276">
+        <v>60.8979509</v>
+      </c>
+      <c r="F276">
+        <v>-146.6795678</v>
+      </c>
+      <c r="G276">
+        <v>2187.695798689846</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4794,6 +7284,15 @@
       <c r="D277">
         <v>0</v>
       </c>
+      <c r="E277">
+        <v>62.0535188</v>
+      </c>
+      <c r="F277">
+        <v>-145.4376249</v>
+      </c>
+      <c r="G277">
+        <v>3925.25</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -4810,6 +7309,15 @@
       <c r="D278">
         <v>0</v>
       </c>
+      <c r="E278">
+        <v>63.38304</v>
+      </c>
+      <c r="F278">
+        <v>-153.28081</v>
+      </c>
+      <c r="G278">
+        <v>600</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -4826,6 +7334,15 @@
       <c r="D279">
         <v>0</v>
       </c>
+      <c r="E279">
+        <v>65.2516553</v>
+      </c>
+      <c r="F279">
+        <v>-166.3511718</v>
+      </c>
+      <c r="G279">
+        <v>10843</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -4842,6 +7359,15 @@
       <c r="D280">
         <v>0</v>
       </c>
+      <c r="E280">
+        <v>57.7900544</v>
+      </c>
+      <c r="F280">
+        <v>-135.1354459</v>
+      </c>
+      <c r="G280">
+        <v>828.9054232804233</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -4858,6 +7384,15 @@
       <c r="D281">
         <v>0</v>
       </c>
+      <c r="E281">
+        <v>63.1667149</v>
+      </c>
+      <c r="F281">
+        <v>-142.5545034</v>
+      </c>
+      <c r="G281">
+        <v>1631.100340136054</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -4874,6 +7409,15 @@
       <c r="D282">
         <v>6209.523809523809</v>
       </c>
+      <c r="E282">
+        <v>55.6671548</v>
+      </c>
+      <c r="F282">
+        <v>-132.5356053</v>
+      </c>
+      <c r="G282">
+        <v>11620.63429705216</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -4890,6 +7434,15 @@
       <c r="D283">
         <v>1039.002267573696</v>
       </c>
+      <c r="E283">
+        <v>59.0406156</v>
+      </c>
+      <c r="F283">
+        <v>-160.4314761</v>
+      </c>
+      <c r="G283">
+        <v>18207.69951814059</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4906,6 +7459,15 @@
       <c r="D284">
         <v>724.7165532879818</v>
       </c>
+      <c r="E284">
+        <v>63.3288523</v>
+      </c>
+      <c r="F284">
+        <v>-143.0375432</v>
+      </c>
+      <c r="G284">
+        <v>14279.54087301587</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -4922,6 +7484,15 @@
       <c r="D285">
         <v>0</v>
       </c>
+      <c r="E285">
+        <v>60.52896</v>
+      </c>
+      <c r="F285">
+        <v>-165.1058359</v>
+      </c>
+      <c r="G285">
+        <v>8829.235518449805</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4938,6 +7509,15 @@
       <c r="D286">
         <v>0</v>
       </c>
+      <c r="E286">
+        <v>62.0686354</v>
+      </c>
+      <c r="F286">
+        <v>-146.1231161</v>
+      </c>
+      <c r="G286">
+        <v>647.625</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -4954,6 +7534,15 @@
       <c r="D287">
         <v>0</v>
       </c>
+      <c r="E287">
+        <v>61.5308984</v>
+      </c>
+      <c r="F287">
+        <v>-145.1108357</v>
+      </c>
+      <c r="G287">
+        <v>1120.75</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -4970,6 +7559,15 @@
       <c r="D288">
         <v>0</v>
       </c>
+      <c r="E288">
+        <v>62.3445111</v>
+      </c>
+      <c r="F288">
+        <v>-150.3987796</v>
+      </c>
+      <c r="G288">
+        <v>202.0357142857143</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -4986,6 +7584,15 @@
       <c r="D289">
         <v>2.72108843537415</v>
       </c>
+      <c r="E289">
+        <v>61.1042731</v>
+      </c>
+      <c r="F289">
+        <v>-160.9375722</v>
+      </c>
+      <c r="G289">
+        <v>49083.16505549588</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -5002,6 +7609,15 @@
       <c r="D290">
         <v>0</v>
       </c>
+      <c r="E290">
+        <v>60.4122909</v>
+      </c>
+      <c r="F290">
+        <v>-162.6687595</v>
+      </c>
+      <c r="G290">
+        <v>55565.7676366843</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -5018,6 +7634,15 @@
       <c r="D291">
         <v>0</v>
       </c>
+      <c r="E291">
+        <v>60.6079907</v>
+      </c>
+      <c r="F291">
+        <v>-165.12079</v>
+      </c>
+      <c r="G291">
+        <v>3913.789540816326</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -5034,6 +7659,15 @@
       <c r="D292">
         <v>131.5192743764172</v>
       </c>
+      <c r="E292">
+        <v>59.1001815</v>
+      </c>
+      <c r="F292">
+        <v>-160.3092616</v>
+      </c>
+      <c r="G292">
+        <v>1319.64410430839</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -5050,6 +7684,15 @@
       <c r="D293">
         <v>0</v>
       </c>
+      <c r="E293">
+        <v>64.89084459999999</v>
+      </c>
+      <c r="F293">
+        <v>-147.0898835</v>
+      </c>
+      <c r="G293">
+        <v>985.75</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -5066,6 +7709,15 @@
       <c r="D294">
         <v>112.4716553287982</v>
       </c>
+      <c r="E294">
+        <v>61.1075868</v>
+      </c>
+      <c r="F294">
+        <v>-151.396552</v>
+      </c>
+      <c r="G294">
+        <v>11085.50313283208</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -5082,6 +7734,15 @@
       <c r="D295">
         <v>0</v>
       </c>
+      <c r="E295">
+        <v>57.67059</v>
+      </c>
+      <c r="F295">
+        <v>-153.51453</v>
+      </c>
+      <c r="G295">
+        <v>24</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -5098,6 +7759,15 @@
       <c r="D296">
         <v>0</v>
       </c>
+      <c r="E296">
+        <v>57.6475267</v>
+      </c>
+      <c r="F296">
+        <v>-156.9948993</v>
+      </c>
+      <c r="G296">
+        <v>1274.984375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -5114,6 +7784,15 @@
       <c r="D297">
         <v>0</v>
       </c>
+      <c r="E297">
+        <v>63.8933067</v>
+      </c>
+      <c r="F297">
+        <v>-160.7966449</v>
+      </c>
+      <c r="G297">
+        <v>62132.11904761905</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -5130,6 +7809,15 @@
       <c r="D298">
         <v>22738.77551020408</v>
       </c>
+      <c r="E298">
+        <v>53.9133124</v>
+      </c>
+      <c r="F298">
+        <v>-166.5250803</v>
+      </c>
+      <c r="G298">
+        <v>36686.12650226757</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -5146,6 +7834,15 @@
       <c r="D299">
         <v>0</v>
       </c>
+      <c r="E299">
+        <v>61.5391395</v>
+      </c>
+      <c r="F299">
+        <v>-160.3487161</v>
+      </c>
+      <c r="G299">
+        <v>62483.78947368421</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -5162,6 +7859,15 @@
       <c r="D300">
         <v>7874.074074074074</v>
       </c>
+      <c r="E300">
+        <v>61.0833672</v>
+      </c>
+      <c r="F300">
+        <v>-146.3202839</v>
+      </c>
+      <c r="G300">
+        <v>22382.45425341854</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -5178,6 +7884,15 @@
       <c r="D301">
         <v>0</v>
       </c>
+      <c r="E301">
+        <v>67.02060830000001</v>
+      </c>
+      <c r="F301">
+        <v>-146.3751552</v>
+      </c>
+      <c r="G301">
+        <v>10364.50088183422</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -5194,6 +7909,15 @@
       <c r="D302">
         <v>410.8843537414966</v>
       </c>
+      <c r="E302">
+        <v>59.79457</v>
+      </c>
+      <c r="F302">
+        <v>-151.09864</v>
+      </c>
+      <c r="G302">
+        <v>5080.725623582766</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -5210,6 +7934,15 @@
       <c r="D303">
         <v>0</v>
       </c>
+      <c r="E303">
+        <v>70.64739059999999</v>
+      </c>
+      <c r="F303">
+        <v>-160.0015329</v>
+      </c>
+      <c r="G303">
+        <v>21343.97222222222</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -5226,6 +7959,15 @@
       <c r="D304">
         <v>1607.709750566893</v>
       </c>
+      <c r="E304">
+        <v>65.6141935</v>
+      </c>
+      <c r="F304">
+        <v>-168.081118</v>
+      </c>
+      <c r="G304">
+        <v>7064.371648659464</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -5242,6 +7984,15 @@
       <c r="D305">
         <v>0</v>
       </c>
+      <c r="E305">
+        <v>61.5752398</v>
+      </c>
+      <c r="F305">
+        <v>-149.4568398</v>
+      </c>
+      <c r="G305">
+        <v>32832.59021335807</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -5258,6 +8009,15 @@
       <c r="D306">
         <v>3785.9410430839</v>
       </c>
+      <c r="E306">
+        <v>56.1266992</v>
+      </c>
+      <c r="F306">
+        <v>-133.1976855</v>
+      </c>
+      <c r="G306">
+        <v>4248.139002267573</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -5274,6 +8034,15 @@
       <c r="D307">
         <v>0</v>
       </c>
+      <c r="E307">
+        <v>64.6818305</v>
+      </c>
+      <c r="F307">
+        <v>-163.411928</v>
+      </c>
+      <c r="G307">
+        <v>13998.90277777778</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -5290,6 +8059,15 @@
       <c r="D308">
         <v>1520.634920634921</v>
       </c>
+      <c r="E308">
+        <v>58.0653797</v>
+      </c>
+      <c r="F308">
+        <v>-135.4204774</v>
+      </c>
+      <c r="G308">
+        <v>2286.621315192744</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -5306,6 +8084,15 @@
       <c r="D309">
         <v>1131.519274376417</v>
       </c>
+      <c r="E309">
+        <v>60.7766828</v>
+      </c>
+      <c r="F309">
+        <v>-148.6646423</v>
+      </c>
+      <c r="G309">
+        <v>1529.704125239839</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5322,6 +8109,15 @@
       <c r="D310">
         <v>0</v>
       </c>
+      <c r="E310">
+        <v>61.8125227</v>
+      </c>
+      <c r="F310">
+        <v>-149.8559936</v>
+      </c>
+      <c r="G310">
+        <v>1594.5</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -5338,6 +8134,15 @@
       <c r="D311">
         <v>0</v>
       </c>
+      <c r="E311">
+        <v>67.4814274</v>
+      </c>
+      <c r="F311">
+        <v>-150.1607236</v>
+      </c>
+      <c r="G311">
+        <v>130.3241496598639</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -5354,6 +8159,15 @@
       <c r="D312">
         <v>0</v>
       </c>
+      <c r="E312">
+        <v>56.2791206</v>
+      </c>
+      <c r="F312">
+        <v>-132.0403255</v>
+      </c>
+      <c r="G312">
+        <v>10735.03603822482</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -5370,6 +8184,15 @@
       <c r="D313">
         <v>15621.31519274376</v>
       </c>
+      <c r="E313">
+        <v>59.5635878</v>
+      </c>
+      <c r="F313">
+        <v>-139.6061905</v>
+      </c>
+      <c r="G313">
+        <v>49617.25927643784</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -5385,6 +8208,15 @@
       </c>
       <c r="D314">
         <v>0</v>
+      </c>
+      <c r="E314">
+        <v>55.91333</v>
+      </c>
+      <c r="F314">
+        <v>-131.79361</v>
+      </c>
+      <c r="G314">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
